--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 4.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
